--- a/data/trans_orig/P14A13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A13-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9110828A-4CD5-44EA-BBD5-24FA1DE38776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20732D2D-89FC-44D5-AD10-EDB6E00B5B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{42857F78-4A8D-495F-B877-BDB211928BEB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{35AEAED1-35CD-4165-8A2E-0946705C2F57}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="267">
   <si>
     <t>Población que recibe medicación o terapia por dolor de espalda en 2012 (Tasa respuesta: 13,48%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>49,18%</t>
   </si>
   <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
   </si>
   <si>
     <t>46,8%</t>
   </si>
   <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
   </si>
   <si>
     <t>47,76%</t>
   </si>
   <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>50,82%</t>
   </si>
   <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
   </si>
   <si>
     <t>53,2%</t>
   </si>
   <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
   </si>
   <si>
     <t>52,24%</t>
   </si>
   <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>46,66%</t>
   </si>
   <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
   </si>
   <si>
     <t>56,81%</t>
   </si>
   <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
   </si>
   <si>
     <t>52,77%</t>
   </si>
   <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
   </si>
   <si>
     <t>53,34%</t>
   </si>
   <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
   </si>
   <si>
     <t>43,19%</t>
   </si>
   <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
   </si>
   <si>
     <t>47,23%</t>
   </si>
   <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -195,55 +195,55 @@
     <t>60,94%</t>
   </si>
   <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
   </si>
   <si>
     <t>72,71%</t>
   </si>
   <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
   </si>
   <si>
     <t>68,98%</t>
   </si>
   <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
   </si>
   <si>
     <t>39,06%</t>
   </si>
   <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
   </si>
   <si>
     <t>27,29%</t>
   </si>
   <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
   </si>
   <si>
     <t>31,02%</t>
   </si>
   <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -252,55 +252,55 @@
     <t>60,0%</t>
   </si>
   <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
   </si>
   <si>
     <t>74,73%</t>
   </si>
   <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
   </si>
   <si>
     <t>69,72%</t>
   </si>
   <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
   </si>
   <si>
     <t>40,0%</t>
   </si>
   <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
   </si>
   <si>
     <t>25,27%</t>
   </si>
   <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
   </si>
   <si>
     <t>30,28%</t>
   </si>
   <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -309,55 +309,43 @@
     <t>60,33%</t>
   </si>
   <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
   </si>
   <si>
     <t>67,83%</t>
   </si>
   <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
+    <t>60,37%</t>
   </si>
   <si>
     <t>39,67%</t>
   </si>
   <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
   </si>
   <si>
     <t>32,17%</t>
   </si>
   <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
+    <t>39,63%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -366,70 +354,70 @@
     <t>67,98%</t>
   </si>
   <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
   </si>
   <si>
     <t>84,8%</t>
   </si>
   <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
   </si>
   <si>
     <t>79,76%</t>
   </si>
   <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
   </si>
   <si>
     <t>32,02%</t>
   </si>
   <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
   </si>
   <si>
     <t>15,2%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
   </si>
   <si>
     <t>20,24%</t>
   </si>
   <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
   </si>
   <si>
     <t>61,26%</t>
   </si>
   <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
   </si>
   <si>
     <t>75,79%</t>
   </si>
   <si>
-    <t>72,39%</t>
+    <t>72,3%</t>
   </si>
   <si>
     <t>79,33%</t>
@@ -438,412 +426,418 @@
     <t>71,1%</t>
   </si>
   <si>
-    <t>68,06%</t>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por dolor de espalda en 2015 (Tasa respuesta: 10,75%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
   </si>
   <si>
     <t>74,01%</t>
   </si>
   <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
   </si>
   <si>
     <t>25,99%</t>
   </si>
   <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por dolor de espalda en 2015 (Tasa respuesta: 10,75%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
+    <t>45,15%</t>
   </si>
   <si>
     <t>69,56%</t>
   </si>
   <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
   </si>
   <si>
     <t>78,24%</t>
   </si>
   <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
   </si>
   <si>
     <t>74,71%</t>
   </si>
   <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
   </si>
   <si>
     <t>30,44%</t>
   </si>
   <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
   </si>
   <si>
     <t>25,29%</t>
   </si>
   <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
   </si>
   <si>
     <t>72,69%</t>
   </si>
   <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
   </si>
   <si>
     <t>82,35%</t>
   </si>
   <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
   </si>
   <si>
     <t>78,84%</t>
   </si>
   <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
   </si>
   <si>
     <t>79,21%</t>
   </si>
   <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
   </si>
   <si>
     <t>85,19%</t>
   </si>
   <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
   </si>
   <si>
     <t>83,29%</t>
   </si>
   <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
   </si>
   <si>
     <t>20,79%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
   </si>
   <si>
     <t>14,81%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
   </si>
   <si>
     <t>16,71%</t>
   </si>
   <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
   </si>
   <si>
     <t>71,32%</t>
   </si>
   <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
   </si>
   <si>
     <t>79,16%</t>
   </si>
   <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
   </si>
   <si>
     <t>76,34%</t>
   </si>
   <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
   </si>
   <si>
     <t>28,68%</t>
   </si>
   <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
   </si>
   <si>
     <t>20,84%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
   </si>
   <si>
     <t>23,66%</t>
   </si>
   <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CE3858-CEE6-4EB1-A15F-D06289ADF41F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CC99B2-CD70-464B-ABC2-384B88611718}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2014,13 +2008,13 @@
         <v>83205</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
@@ -2029,13 +2023,13 @@
         <v>115214</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2050,13 +2044,13 @@
         <v>21051</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -2065,13 +2059,13 @@
         <v>33585</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -2080,13 +2074,13 @@
         <v>54636</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,7 +2136,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2154,13 +2148,13 @@
         <v>75810</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>204</v>
@@ -2169,13 +2163,13 @@
         <v>221077</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>272</v>
@@ -2184,13 +2178,13 @@
         <v>296887</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,13 +2199,13 @@
         <v>35714</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -2220,13 +2214,13 @@
         <v>39630</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>70</v>
@@ -2235,13 +2229,13 @@
         <v>75344</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,13 +2303,13 @@
         <v>187998</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>450</v>
@@ -2324,13 +2318,13 @@
         <v>487716</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>626</v>
@@ -2339,13 +2333,13 @@
         <v>675714</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2354,13 @@
         <v>118886</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>141</v>
@@ -2375,13 +2369,13 @@
         <v>155829</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>251</v>
@@ -2390,13 +2384,13 @@
         <v>274715</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,7 +2446,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2474,7 +2468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586565E8-D194-434E-A928-AF2A715C0DC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8711B45-A6F1-45E4-A47B-02BC88268C98}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2491,7 +2485,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2598,13 +2592,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -2613,13 +2607,13 @@
         <v>5609</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2628,13 +2622,13 @@
         <v>5609</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,10 +2643,10 @@
         <v>2207</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -2664,13 +2658,13 @@
         <v>5058</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -2679,13 +2673,13 @@
         <v>7265</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,13 +2747,13 @@
         <v>10605</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -2768,13 +2762,13 @@
         <v>19981</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -2783,13 +2777,13 @@
         <v>30586</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,13 +2798,13 @@
         <v>5955</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -2819,13 +2813,13 @@
         <v>12180</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -2834,13 +2828,13 @@
         <v>18136</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2902,13 @@
         <v>28033</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -2923,13 +2917,13 @@
         <v>39190</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -2938,13 +2932,13 @@
         <v>67224</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +2953,13 @@
         <v>17528</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -2974,13 +2968,13 @@
         <v>18381</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -2989,13 +2983,13 @@
         <v>35909</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3057,13 @@
         <v>41139</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -3078,13 +3072,13 @@
         <v>67462</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -3093,13 +3087,13 @@
         <v>108601</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3108,13 @@
         <v>18006</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -3129,13 +3123,13 @@
         <v>18758</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -3144,13 +3138,13 @@
         <v>36764</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3212,13 @@
         <v>43106</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H16" s="7">
         <v>76</v>
@@ -3233,13 +3227,13 @@
         <v>85632</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M16" s="7">
         <v>113</v>
@@ -3248,13 +3242,13 @@
         <v>128739</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3263,13 @@
         <v>16197</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -3284,13 +3278,13 @@
         <v>18357</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -3299,13 +3293,13 @@
         <v>34553</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,7 +3355,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3373,13 +3367,13 @@
         <v>75025</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H19" s="7">
         <v>145</v>
@@ -3388,13 +3382,13 @@
         <v>172203</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M19" s="7">
         <v>225</v>
@@ -3403,13 +3397,13 @@
         <v>247227</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3418,13 @@
         <v>19688</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -3439,13 +3433,13 @@
         <v>29928</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -3454,13 +3448,13 @@
         <v>49617</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,13 +3522,13 @@
         <v>197908</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H22" s="7">
         <v>351</v>
@@ -3543,13 +3537,13 @@
         <v>390078</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M22" s="7">
         <v>539</v>
@@ -3558,13 +3552,13 @@
         <v>587986</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,13 +3573,13 @@
         <v>79580</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H23" s="7">
         <v>92</v>
@@ -3594,13 +3588,13 @@
         <v>102663</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M23" s="7">
         <v>167</v>
@@ -3609,13 +3603,13 @@
         <v>182243</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,7 +3665,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A13-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20732D2D-89FC-44D5-AD10-EDB6E00B5B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC563CA4-0B83-4B9D-9F2C-2155215357C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{35AEAED1-35CD-4165-8A2E-0946705C2F57}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{61F84B46-B84F-4ECD-8068-02955EE47C77}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="269">
   <si>
     <t>Población que recibe medicación o terapia por dolor de espalda en 2012 (Tasa respuesta: 13,48%)</t>
   </si>
@@ -75,769 +75,775 @@
     <t>49,18%</t>
   </si>
   <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
   </si>
   <si>
     <t>46,8%</t>
   </si>
   <si>
-    <t>23,07%</t>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
   </si>
   <si>
     <t>71,24%</t>
   </si>
   <si>
-    <t>47,76%</t>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por dolor de espalda en 2016 (Tasa respuesta: 10,75%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
   </si>
   <si>
     <t>29,33%</t>
   </si>
   <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por dolor de espalda en 2015 (Tasa respuesta: 10,75%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
     <t>79,21%</t>
   </si>
   <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
   </si>
   <si>
     <t>85,19%</t>
   </si>
   <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
   </si>
   <si>
     <t>83,29%</t>
   </si>
   <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
   </si>
   <si>
     <t>20,79%</t>
   </si>
   <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
   </si>
   <si>
     <t>14,81%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
   </si>
   <si>
     <t>16,71%</t>
   </si>
   <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
   </si>
   <si>
     <t>71,32%</t>
   </si>
   <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
   </si>
   <si>
     <t>79,16%</t>
   </si>
   <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
+    <t>82,81%</t>
   </si>
   <si>
     <t>76,34%</t>
   </si>
   <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
   </si>
   <si>
     <t>28,68%</t>
   </si>
   <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
   </si>
   <si>
     <t>20,84%</t>
   </si>
   <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
+    <t>17,19%</t>
   </si>
   <si>
     <t>23,66%</t>
   </si>
   <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CC99B2-CD70-464B-ABC2-384B88611718}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D3A023-AC08-42B5-B967-778706A5A576}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2008,13 +2014,13 @@
         <v>83205</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
@@ -2023,13 +2029,13 @@
         <v>115214</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2044,13 +2050,13 @@
         <v>21051</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -2059,13 +2065,13 @@
         <v>33585</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -2074,13 +2080,13 @@
         <v>54636</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,7 +2142,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2148,13 +2154,13 @@
         <v>75810</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>204</v>
@@ -2163,13 +2169,13 @@
         <v>221077</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>272</v>
@@ -2178,13 +2184,13 @@
         <v>296887</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2199,13 +2205,13 @@
         <v>35714</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -2214,13 +2220,13 @@
         <v>39630</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>70</v>
@@ -2229,13 +2235,13 @@
         <v>75344</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2303,13 +2309,13 @@
         <v>187998</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>450</v>
@@ -2318,13 +2324,13 @@
         <v>487716</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>626</v>
@@ -2333,13 +2339,13 @@
         <v>675714</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2360,13 @@
         <v>118886</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>141</v>
@@ -2369,13 +2375,13 @@
         <v>155829</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>251</v>
@@ -2384,13 +2390,13 @@
         <v>274715</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,7 +2452,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2468,7 +2474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8711B45-A6F1-45E4-A47B-02BC88268C98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A897FD36-0FF9-42D4-963A-22BD299B8964}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2485,7 +2491,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2592,13 +2598,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -2607,13 +2613,13 @@
         <v>5609</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2622,13 +2628,13 @@
         <v>5609</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,10 +2649,10 @@
         <v>2207</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -2658,13 +2664,13 @@
         <v>5058</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -2673,13 +2679,13 @@
         <v>7265</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,13 +2753,13 @@
         <v>10605</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -2762,13 +2768,13 @@
         <v>19981</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -2777,13 +2783,13 @@
         <v>30586</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,13 +2804,13 @@
         <v>5955</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -2813,13 +2819,13 @@
         <v>12180</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -2828,13 +2834,13 @@
         <v>18136</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2908,13 @@
         <v>28033</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -2917,13 +2923,13 @@
         <v>39190</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -2932,13 +2938,13 @@
         <v>67224</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2959,13 @@
         <v>17528</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -2968,13 +2974,13 @@
         <v>18381</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -2983,13 +2989,13 @@
         <v>35909</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3063,13 @@
         <v>41139</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -3072,13 +3078,13 @@
         <v>67462</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -3087,13 +3093,13 @@
         <v>108601</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3114,13 @@
         <v>18006</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -3123,13 +3129,13 @@
         <v>18758</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -3138,13 +3144,13 @@
         <v>36764</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3218,13 @@
         <v>43106</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H16" s="7">
         <v>76</v>
@@ -3227,13 +3233,13 @@
         <v>85632</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M16" s="7">
         <v>113</v>
@@ -3242,13 +3248,13 @@
         <v>128739</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3269,13 @@
         <v>16197</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -3278,13 +3284,13 @@
         <v>18357</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -3293,13 +3299,13 @@
         <v>34553</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,7 +3361,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3367,13 +3373,13 @@
         <v>75025</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H19" s="7">
         <v>145</v>
@@ -3382,13 +3388,13 @@
         <v>172203</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M19" s="7">
         <v>225</v>
@@ -3397,13 +3403,13 @@
         <v>247227</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3424,13 @@
         <v>19688</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -3433,13 +3439,13 @@
         <v>29928</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -3448,13 +3454,13 @@
         <v>49617</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3528,13 @@
         <v>197908</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H22" s="7">
         <v>351</v>
@@ -3537,13 +3543,13 @@
         <v>390078</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>539</v>
@@ -3552,13 +3558,13 @@
         <v>587986</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3579,13 @@
         <v>79580</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>92</v>
@@ -3588,13 +3594,13 @@
         <v>102663</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="M23" s="7">
         <v>167</v>
@@ -3603,13 +3609,13 @@
         <v>182243</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,7 +3671,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
